--- a/일정차트.xlsx
+++ b/일정차트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,7 +41,8 @@
     <t xml:space="preserve">홈페이지 요소완성 </t>
   </si>
   <si>
-    <t>런칭</t>
+    <t>7(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기간(실작업)</t>
@@ -52,23 +53,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>콘탠츠홈페이지 업체 접선 및 미팅</t>
+    <t>홈페이지 배경 이미지 및 psd 시안</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>콘탠츠홈페이지 BI/ 화면 정의</t>
+    <t>테스트 베드 기간(서버안착 및 가DB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트 베드 기간</t>
+    <t>2(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>콘탠츠홈페이지 및 ERP(관리자 페이지) / 대시보드 제작</t>
+    <t>콘텐츠홈페이지 BI/ 화면 정의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홈페이지 배경 이미지 및 psd 시안</t>
+    <t>콘텐츠홈페이지 및 ERP(관리자 페이지) / 대시보드 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 빌더 탑제 및 고도화(2차)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠홈페이지 외주 업체 접선 및 미팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 계약 서비스 런칭 및 콜센터 세팅(1차)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136(91)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189(130)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +121,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="179" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +138,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -104,13 +153,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -139,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,12 +253,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,7 +271,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -209,7 +280,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -218,48 +289,144 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC13F17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC13F17"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -323,8 +490,21 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>픽스어빌리티 예상 일정</a:t>
+            <a:t>픽스어빌리티 예상 일정 </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>임시측정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -596,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:HF13"/>
+  <dimension ref="A5:MB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,11 +788,11 @@
     <col min="2" max="2" width="52.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="190" width="3.625" style="3" customWidth="1"/>
-    <col min="191" max="214" width="3.625" customWidth="1"/>
+    <col min="6" max="190" width="2.625" style="3" customWidth="1"/>
+    <col min="191" max="340" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:214" ht="48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:340" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>0</v>
@@ -758,7 +938,7 @@
       <c r="AW5" s="6">
         <v>44189</v>
       </c>
-      <c r="AX5" s="6">
+      <c r="AX5" s="23">
         <v>44190</v>
       </c>
       <c r="AY5" s="6">
@@ -779,503 +959,883 @@
       <c r="BD5" s="6">
         <v>44196</v>
       </c>
-      <c r="BE5" s="6">
-        <v>43831</v>
+      <c r="BE5" s="23">
+        <v>44197</v>
       </c>
       <c r="BF5" s="6">
-        <v>43832</v>
+        <v>44198</v>
       </c>
       <c r="BG5" s="6">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="BH5" s="6">
-        <v>43834</v>
+        <v>44200</v>
       </c>
       <c r="BI5" s="6">
-        <v>43835</v>
+        <v>44201</v>
       </c>
       <c r="BJ5" s="6">
-        <v>43836</v>
+        <v>44202</v>
       </c>
       <c r="BK5" s="6">
-        <v>43837</v>
+        <v>44203</v>
       </c>
       <c r="BL5" s="6">
-        <v>43838</v>
+        <v>44204</v>
       </c>
       <c r="BM5" s="6">
-        <v>43839</v>
+        <v>44205</v>
       </c>
       <c r="BN5" s="6">
-        <v>43840</v>
+        <v>44206</v>
       </c>
       <c r="BO5" s="6">
-        <v>43841</v>
+        <v>44207</v>
       </c>
       <c r="BP5" s="6">
-        <v>43842</v>
+        <v>44208</v>
       </c>
       <c r="BQ5" s="6">
-        <v>43843</v>
+        <v>44209</v>
       </c>
       <c r="BR5" s="6">
-        <v>43844</v>
+        <v>44210</v>
       </c>
       <c r="BS5" s="6">
-        <v>43845</v>
+        <v>44211</v>
       </c>
       <c r="BT5" s="6">
-        <v>43846</v>
+        <v>44212</v>
       </c>
       <c r="BU5" s="6">
-        <v>43847</v>
+        <v>44213</v>
       </c>
       <c r="BV5" s="6">
-        <v>43848</v>
+        <v>44214</v>
       </c>
       <c r="BW5" s="6">
-        <v>43849</v>
+        <v>44215</v>
       </c>
       <c r="BX5" s="6">
-        <v>43850</v>
+        <v>44216</v>
       </c>
       <c r="BY5" s="6">
-        <v>43851</v>
+        <v>44217</v>
       </c>
       <c r="BZ5" s="6">
-        <v>43852</v>
+        <v>44218</v>
       </c>
       <c r="CA5" s="6">
-        <v>43853</v>
+        <v>44219</v>
       </c>
       <c r="CB5" s="6">
-        <v>43854</v>
+        <v>44220</v>
       </c>
       <c r="CC5" s="6">
-        <v>43855</v>
+        <v>44221</v>
       </c>
       <c r="CD5" s="6">
-        <v>43856</v>
+        <v>44222</v>
       </c>
       <c r="CE5" s="6">
-        <v>43857</v>
+        <v>44223</v>
       </c>
       <c r="CF5" s="6">
-        <v>43858</v>
+        <v>44224</v>
       </c>
       <c r="CG5" s="6">
-        <v>43859</v>
+        <v>44225</v>
       </c>
       <c r="CH5" s="6">
-        <v>43860</v>
+        <v>44226</v>
       </c>
       <c r="CI5" s="6">
-        <v>43861</v>
+        <v>44227</v>
       </c>
       <c r="CJ5" s="6">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="CK5" s="6">
-        <v>43863</v>
+        <v>44229</v>
       </c>
       <c r="CL5" s="6">
-        <v>43864</v>
+        <v>44230</v>
       </c>
       <c r="CM5" s="6">
-        <v>43865</v>
+        <v>44231</v>
       </c>
       <c r="CN5" s="6">
-        <v>43866</v>
+        <v>44232</v>
       </c>
       <c r="CO5" s="6">
-        <v>43867</v>
+        <v>44233</v>
       </c>
       <c r="CP5" s="6">
-        <v>43868</v>
+        <v>44234</v>
       </c>
       <c r="CQ5" s="6">
-        <v>43869</v>
+        <v>44235</v>
       </c>
       <c r="CR5" s="6">
-        <v>43870</v>
+        <v>44236</v>
       </c>
       <c r="CS5" s="6">
-        <v>43871</v>
-      </c>
-      <c r="CT5" s="6">
-        <v>43872</v>
-      </c>
-      <c r="CU5" s="6">
-        <v>43873</v>
+        <v>44237</v>
+      </c>
+      <c r="CT5" s="23">
+        <v>44238</v>
+      </c>
+      <c r="CU5" s="23">
+        <v>44239</v>
       </c>
       <c r="CV5" s="6">
-        <v>43874</v>
+        <v>44240</v>
       </c>
       <c r="CW5" s="6">
-        <v>43875</v>
+        <v>44241</v>
       </c>
       <c r="CX5" s="6">
-        <v>43876</v>
+        <v>44242</v>
       </c>
       <c r="CY5" s="6">
-        <v>43877</v>
+        <v>44243</v>
       </c>
       <c r="CZ5" s="6">
-        <v>43878</v>
+        <v>44244</v>
       </c>
       <c r="DA5" s="6">
-        <v>43879</v>
+        <v>44245</v>
       </c>
       <c r="DB5" s="6">
-        <v>43880</v>
+        <v>44246</v>
       </c>
       <c r="DC5" s="6">
-        <v>43881</v>
+        <v>44247</v>
       </c>
       <c r="DD5" s="6">
-        <v>43882</v>
+        <v>44248</v>
       </c>
       <c r="DE5" s="6">
-        <v>43883</v>
+        <v>44249</v>
       </c>
       <c r="DF5" s="6">
-        <v>43884</v>
+        <v>44250</v>
       </c>
       <c r="DG5" s="6">
-        <v>43885</v>
+        <v>44251</v>
       </c>
       <c r="DH5" s="6">
-        <v>43886</v>
+        <v>44252</v>
       </c>
       <c r="DI5" s="6">
-        <v>43887</v>
+        <v>44253</v>
       </c>
       <c r="DJ5" s="6">
-        <v>43888</v>
+        <v>44254</v>
       </c>
       <c r="DK5" s="6">
-        <v>43889</v>
-      </c>
-      <c r="DL5" s="6">
-        <v>43890</v>
+        <v>44255</v>
+      </c>
+      <c r="DL5" s="23">
+        <v>44256</v>
       </c>
       <c r="DM5" s="6">
-        <v>43891</v>
+        <v>44257</v>
       </c>
       <c r="DN5" s="6">
-        <v>43892</v>
+        <v>44258</v>
       </c>
       <c r="DO5" s="6">
-        <v>43893</v>
+        <v>44259</v>
       </c>
       <c r="DP5" s="6">
-        <v>43894</v>
+        <v>44260</v>
       </c>
       <c r="DQ5" s="6">
-        <v>43895</v>
+        <v>44261</v>
       </c>
       <c r="DR5" s="6">
-        <v>43896</v>
+        <v>44262</v>
       </c>
       <c r="DS5" s="6">
-        <v>43897</v>
+        <v>44263</v>
       </c>
       <c r="DT5" s="6">
-        <v>43898</v>
+        <v>44264</v>
       </c>
       <c r="DU5" s="6">
-        <v>43899</v>
+        <v>44265</v>
       </c>
       <c r="DV5" s="6">
-        <v>43900</v>
+        <v>44266</v>
       </c>
       <c r="DW5" s="6">
-        <v>43901</v>
+        <v>44267</v>
       </c>
       <c r="DX5" s="6">
-        <v>43902</v>
+        <v>44268</v>
       </c>
       <c r="DY5" s="6">
-        <v>43903</v>
+        <v>44269</v>
       </c>
       <c r="DZ5" s="6">
-        <v>43904</v>
+        <v>44270</v>
       </c>
       <c r="EA5" s="6">
-        <v>43905</v>
+        <v>44271</v>
       </c>
       <c r="EB5" s="6">
-        <v>43906</v>
+        <v>44272</v>
       </c>
       <c r="EC5" s="6">
-        <v>43907</v>
+        <v>44273</v>
       </c>
       <c r="ED5" s="6">
-        <v>43908</v>
+        <v>44274</v>
       </c>
       <c r="EE5" s="6">
-        <v>43909</v>
+        <v>44275</v>
       </c>
       <c r="EF5" s="6">
-        <v>43910</v>
+        <v>44276</v>
       </c>
       <c r="EG5" s="6">
-        <v>43911</v>
+        <v>44277</v>
       </c>
       <c r="EH5" s="6">
-        <v>43912</v>
+        <v>44278</v>
       </c>
       <c r="EI5" s="6">
-        <v>43913</v>
+        <v>44279</v>
       </c>
       <c r="EJ5" s="6">
-        <v>43914</v>
+        <v>44280</v>
       </c>
       <c r="EK5" s="6">
-        <v>43915</v>
+        <v>44281</v>
       </c>
       <c r="EL5" s="6">
-        <v>43916</v>
+        <v>44282</v>
       </c>
       <c r="EM5" s="6">
-        <v>43917</v>
+        <v>44283</v>
       </c>
       <c r="EN5" s="6">
-        <v>43918</v>
+        <v>44284</v>
       </c>
       <c r="EO5" s="6">
-        <v>43919</v>
+        <v>44285</v>
       </c>
       <c r="EP5" s="6">
-        <v>43920</v>
+        <v>44286</v>
       </c>
       <c r="EQ5" s="6">
-        <v>43921</v>
+        <v>44287</v>
       </c>
       <c r="ER5" s="6">
-        <v>43922</v>
+        <v>44288</v>
       </c>
       <c r="ES5" s="6">
-        <v>43923</v>
+        <v>44289</v>
       </c>
       <c r="ET5" s="6">
-        <v>43924</v>
+        <v>44290</v>
       </c>
       <c r="EU5" s="6">
-        <v>43925</v>
+        <v>44291</v>
       </c>
       <c r="EV5" s="6">
-        <v>43926</v>
+        <v>44292</v>
       </c>
       <c r="EW5" s="6">
-        <v>43927</v>
+        <v>44293</v>
       </c>
       <c r="EX5" s="6">
-        <v>43928</v>
+        <v>44294</v>
       </c>
       <c r="EY5" s="6">
-        <v>43929</v>
+        <v>44295</v>
       </c>
       <c r="EZ5" s="6">
-        <v>43930</v>
+        <v>44296</v>
       </c>
       <c r="FA5" s="6">
-        <v>43931</v>
+        <v>44297</v>
       </c>
       <c r="FB5" s="6">
-        <v>43932</v>
+        <v>44298</v>
       </c>
       <c r="FC5" s="6">
-        <v>43933</v>
+        <v>44299</v>
       </c>
       <c r="FD5" s="6">
-        <v>43934</v>
+        <v>44300</v>
       </c>
       <c r="FE5" s="6">
-        <v>43935</v>
+        <v>44301</v>
       </c>
       <c r="FF5" s="6">
-        <v>43936</v>
+        <v>44302</v>
       </c>
       <c r="FG5" s="6">
-        <v>43937</v>
+        <v>44303</v>
       </c>
       <c r="FH5" s="6">
-        <v>43938</v>
+        <v>44304</v>
       </c>
       <c r="FI5" s="6">
-        <v>43939</v>
+        <v>44305</v>
       </c>
       <c r="FJ5" s="6">
-        <v>43940</v>
+        <v>44306</v>
       </c>
       <c r="FK5" s="6">
-        <v>43941</v>
+        <v>44307</v>
       </c>
       <c r="FL5" s="6">
-        <v>43942</v>
+        <v>44308</v>
       </c>
       <c r="FM5" s="6">
-        <v>43943</v>
+        <v>44309</v>
       </c>
       <c r="FN5" s="6">
-        <v>43944</v>
+        <v>44310</v>
       </c>
       <c r="FO5" s="6">
-        <v>43945</v>
+        <v>44311</v>
       </c>
       <c r="FP5" s="6">
-        <v>43946</v>
+        <v>44312</v>
       </c>
       <c r="FQ5" s="6">
-        <v>43947</v>
+        <v>44313</v>
       </c>
       <c r="FR5" s="6">
-        <v>43948</v>
+        <v>44314</v>
       </c>
       <c r="FS5" s="6">
-        <v>43949</v>
+        <v>44315</v>
       </c>
       <c r="FT5" s="6">
-        <v>43950</v>
+        <v>44316</v>
       </c>
       <c r="FU5" s="6">
-        <v>43951</v>
+        <v>44317</v>
       </c>
       <c r="FV5" s="6">
-        <v>43952</v>
+        <v>44318</v>
       </c>
       <c r="FW5" s="6">
-        <v>43953</v>
+        <v>44319</v>
       </c>
       <c r="FX5" s="6">
-        <v>43954</v>
-      </c>
-      <c r="FY5" s="6">
-        <v>43955</v>
+        <v>44320</v>
+      </c>
+      <c r="FY5" s="23">
+        <v>44321</v>
       </c>
       <c r="FZ5" s="6">
-        <v>43956</v>
+        <v>44322</v>
       </c>
       <c r="GA5" s="6">
-        <v>43957</v>
+        <v>44323</v>
       </c>
       <c r="GB5" s="6">
-        <v>43958</v>
+        <v>44324</v>
       </c>
       <c r="GC5" s="6">
-        <v>43959</v>
+        <v>44325</v>
       </c>
       <c r="GD5" s="6">
-        <v>43960</v>
+        <v>44326</v>
       </c>
       <c r="GE5" s="6">
-        <v>43961</v>
+        <v>44327</v>
       </c>
       <c r="GF5" s="6">
-        <v>43962</v>
+        <v>44328</v>
       </c>
       <c r="GG5" s="6">
-        <v>43963</v>
+        <v>44329</v>
       </c>
       <c r="GH5" s="6">
-        <v>43964</v>
+        <v>44330</v>
       </c>
       <c r="GI5" s="6">
-        <v>43965</v>
+        <v>44331</v>
       </c>
       <c r="GJ5" s="6">
-        <v>43966</v>
+        <v>44332</v>
       </c>
       <c r="GK5" s="6">
-        <v>43967</v>
+        <v>44333</v>
       </c>
       <c r="GL5" s="6">
-        <v>43968</v>
-      </c>
-      <c r="GM5" s="6">
-        <v>43969</v>
+        <v>44334</v>
+      </c>
+      <c r="GM5" s="23">
+        <v>44335</v>
       </c>
       <c r="GN5" s="6">
-        <v>43970</v>
+        <v>44336</v>
       </c>
       <c r="GO5" s="6">
-        <v>43971</v>
+        <v>44337</v>
       </c>
       <c r="GP5" s="6">
-        <v>43972</v>
+        <v>44338</v>
       </c>
       <c r="GQ5" s="6">
-        <v>43973</v>
+        <v>44339</v>
       </c>
       <c r="GR5" s="6">
-        <v>43974</v>
+        <v>44340</v>
       </c>
       <c r="GS5" s="6">
-        <v>43975</v>
+        <v>44341</v>
       </c>
       <c r="GT5" s="6">
-        <v>43976</v>
+        <v>44342</v>
       </c>
       <c r="GU5" s="6">
-        <v>43977</v>
+        <v>44343</v>
       </c>
       <c r="GV5" s="6">
-        <v>43978</v>
+        <v>44344</v>
       </c>
       <c r="GW5" s="6">
-        <v>43979</v>
+        <v>44345</v>
       </c>
       <c r="GX5" s="6">
-        <v>43980</v>
+        <v>44346</v>
       </c>
       <c r="GY5" s="6">
-        <v>43981</v>
+        <v>44347</v>
       </c>
       <c r="GZ5" s="6">
-        <v>43982</v>
+        <v>44348</v>
       </c>
       <c r="HA5" s="6">
-        <v>43983</v>
+        <v>44349</v>
       </c>
       <c r="HB5" s="6">
-        <v>43984</v>
+        <v>44350</v>
       </c>
       <c r="HC5" s="6">
-        <v>43985</v>
+        <v>44351</v>
       </c>
       <c r="HD5" s="6">
-        <v>43986</v>
+        <v>44352</v>
       </c>
       <c r="HE5" s="6">
-        <v>43987</v>
+        <v>44353</v>
       </c>
       <c r="HF5" s="6">
-        <v>43988</v>
+        <v>44354</v>
+      </c>
+      <c r="HG5" s="6">
+        <v>44355</v>
+      </c>
+      <c r="HH5" s="6">
+        <v>44356</v>
+      </c>
+      <c r="HI5" s="6">
+        <v>44357</v>
+      </c>
+      <c r="HJ5" s="6">
+        <v>44358</v>
+      </c>
+      <c r="HK5" s="6">
+        <v>44359</v>
+      </c>
+      <c r="HL5" s="6">
+        <v>44360</v>
+      </c>
+      <c r="HM5" s="6">
+        <v>44361</v>
+      </c>
+      <c r="HN5" s="6">
+        <v>44362</v>
+      </c>
+      <c r="HO5" s="6">
+        <v>44363</v>
+      </c>
+      <c r="HP5" s="6">
+        <v>44364</v>
+      </c>
+      <c r="HQ5" s="6">
+        <v>44365</v>
+      </c>
+      <c r="HR5" s="6">
+        <v>44366</v>
+      </c>
+      <c r="HS5" s="6">
+        <v>44367</v>
+      </c>
+      <c r="HT5" s="6">
+        <v>44368</v>
+      </c>
+      <c r="HU5" s="6">
+        <v>44369</v>
+      </c>
+      <c r="HV5" s="6">
+        <v>44370</v>
+      </c>
+      <c r="HW5" s="6">
+        <v>44371</v>
+      </c>
+      <c r="HX5" s="6">
+        <v>44372</v>
+      </c>
+      <c r="HY5" s="6">
+        <v>44373</v>
+      </c>
+      <c r="HZ5" s="6">
+        <v>44374</v>
+      </c>
+      <c r="IA5" s="6">
+        <v>44375</v>
+      </c>
+      <c r="IB5" s="6">
+        <v>44376</v>
+      </c>
+      <c r="IC5" s="6">
+        <v>44377</v>
+      </c>
+      <c r="ID5" s="6">
+        <v>44378</v>
+      </c>
+      <c r="IE5" s="6">
+        <v>44379</v>
+      </c>
+      <c r="IF5" s="6">
+        <v>44380</v>
+      </c>
+      <c r="IG5" s="6">
+        <v>44381</v>
+      </c>
+      <c r="IH5" s="6">
+        <v>44382</v>
+      </c>
+      <c r="II5" s="6">
+        <v>44383</v>
+      </c>
+      <c r="IJ5" s="6">
+        <v>44384</v>
+      </c>
+      <c r="IK5" s="6">
+        <v>44385</v>
+      </c>
+      <c r="IL5" s="6">
+        <v>44386</v>
+      </c>
+      <c r="IM5" s="6">
+        <v>44387</v>
+      </c>
+      <c r="IN5" s="6">
+        <v>44388</v>
+      </c>
+      <c r="IO5" s="6">
+        <v>44389</v>
+      </c>
+      <c r="IP5" s="6">
+        <v>44390</v>
+      </c>
+      <c r="IQ5" s="6">
+        <v>44391</v>
+      </c>
+      <c r="IR5" s="6">
+        <v>44392</v>
+      </c>
+      <c r="IS5" s="6">
+        <v>44393</v>
+      </c>
+      <c r="IT5" s="6">
+        <v>44394</v>
+      </c>
+      <c r="IU5" s="6">
+        <v>44395</v>
+      </c>
+      <c r="IV5" s="6">
+        <v>44396</v>
+      </c>
+      <c r="IW5" s="6">
+        <v>44397</v>
+      </c>
+      <c r="IX5" s="6">
+        <v>44398</v>
+      </c>
+      <c r="IY5" s="6">
+        <v>44399</v>
+      </c>
+      <c r="IZ5" s="6">
+        <v>44400</v>
+      </c>
+      <c r="JA5" s="6">
+        <v>44401</v>
+      </c>
+      <c r="JB5" s="6">
+        <v>44402</v>
+      </c>
+      <c r="JC5" s="6">
+        <v>44403</v>
+      </c>
+      <c r="JD5" s="6">
+        <v>44404</v>
+      </c>
+      <c r="JE5" s="6">
+        <v>44405</v>
+      </c>
+      <c r="JF5" s="6">
+        <v>44406</v>
+      </c>
+      <c r="JG5" s="6">
+        <v>44407</v>
+      </c>
+      <c r="JH5" s="6">
+        <v>44408</v>
+      </c>
+      <c r="JI5" s="6">
+        <v>44409</v>
+      </c>
+      <c r="JJ5" s="6">
+        <v>44410</v>
+      </c>
+      <c r="JK5" s="6">
+        <v>44411</v>
+      </c>
+      <c r="JL5" s="6">
+        <v>44412</v>
+      </c>
+      <c r="JM5" s="6">
+        <v>44413</v>
+      </c>
+      <c r="JN5" s="6">
+        <v>44414</v>
+      </c>
+      <c r="JO5" s="6">
+        <v>44415</v>
+      </c>
+      <c r="JP5" s="6">
+        <v>44416</v>
+      </c>
+      <c r="JQ5" s="6">
+        <v>44417</v>
+      </c>
+      <c r="JR5" s="6">
+        <v>44418</v>
+      </c>
+      <c r="JS5" s="6">
+        <v>44419</v>
+      </c>
+      <c r="JT5" s="6">
+        <v>44420</v>
+      </c>
+      <c r="JU5" s="6">
+        <v>44421</v>
+      </c>
+      <c r="JV5" s="6">
+        <v>44422</v>
+      </c>
+      <c r="JW5" s="6">
+        <v>44423</v>
+      </c>
+      <c r="JX5" s="6">
+        <v>44424</v>
+      </c>
+      <c r="JY5" s="6">
+        <v>44425</v>
+      </c>
+      <c r="JZ5" s="6">
+        <v>44426</v>
+      </c>
+      <c r="KA5" s="6">
+        <v>44427</v>
+      </c>
+      <c r="KB5" s="6">
+        <v>44428</v>
+      </c>
+      <c r="KC5" s="6">
+        <v>44429</v>
+      </c>
+      <c r="KD5" s="6">
+        <v>44430</v>
+      </c>
+      <c r="KE5" s="6">
+        <v>44431</v>
+      </c>
+      <c r="KF5" s="6">
+        <v>44432</v>
+      </c>
+      <c r="KG5" s="6">
+        <v>44433</v>
+      </c>
+      <c r="KH5" s="6">
+        <v>44434</v>
+      </c>
+      <c r="KI5" s="6">
+        <v>44435</v>
+      </c>
+      <c r="KJ5" s="6">
+        <v>44436</v>
+      </c>
+      <c r="KK5" s="6">
+        <v>44437</v>
+      </c>
+      <c r="KL5" s="6">
+        <v>44438</v>
+      </c>
+      <c r="KM5" s="6">
+        <v>44439</v>
+      </c>
+      <c r="KN5" s="6">
+        <v>44440</v>
+      </c>
+      <c r="KO5" s="6">
+        <v>44441</v>
+      </c>
+      <c r="KP5" s="6">
+        <v>44442</v>
+      </c>
+      <c r="KQ5" s="6">
+        <v>44443</v>
+      </c>
+      <c r="KR5" s="6">
+        <v>44444</v>
+      </c>
+      <c r="KS5" s="6">
+        <v>44445</v>
+      </c>
+      <c r="KT5" s="6">
+        <v>44446</v>
+      </c>
+      <c r="KU5" s="6">
+        <v>44447</v>
+      </c>
+      <c r="KV5" s="6">
+        <v>44448</v>
+      </c>
+      <c r="KW5" s="6">
+        <v>44449</v>
+      </c>
+      <c r="KX5" s="6">
+        <v>44450</v>
+      </c>
+      <c r="KY5" s="6">
+        <v>44451</v>
+      </c>
+      <c r="KZ5" s="6">
+        <v>44452</v>
+      </c>
+      <c r="LA5" s="6">
+        <v>44453</v>
+      </c>
+      <c r="LB5" s="6">
+        <v>44454</v>
+      </c>
+      <c r="LC5" s="6">
+        <v>44455</v>
+      </c>
+      <c r="LD5" s="6">
+        <v>44456</v>
+      </c>
+      <c r="LE5" s="6">
+        <v>44457</v>
+      </c>
+      <c r="LF5" s="6">
+        <v>44458</v>
+      </c>
+      <c r="LG5" s="23">
+        <v>44459</v>
+      </c>
+      <c r="LH5" s="23">
+        <v>44460</v>
+      </c>
+      <c r="LI5" s="23">
+        <v>44461</v>
+      </c>
+      <c r="LJ5" s="6">
+        <v>44462</v>
+      </c>
+      <c r="LK5" s="6">
+        <v>44463</v>
+      </c>
+      <c r="LL5" s="6">
+        <v>44464</v>
+      </c>
+      <c r="LM5" s="6">
+        <v>44465</v>
+      </c>
+      <c r="LN5" s="6">
+        <v>44466</v>
+      </c>
+      <c r="LO5" s="6">
+        <v>44467</v>
+      </c>
+      <c r="LP5" s="6">
+        <v>44468</v>
+      </c>
+      <c r="LQ5" s="6">
+        <v>44469</v>
+      </c>
+      <c r="LR5" s="6">
+        <v>44470</v>
+      </c>
+      <c r="LS5" s="6">
+        <v>44471</v>
+      </c>
+      <c r="LT5" s="6">
+        <v>44472</v>
+      </c>
+      <c r="LU5" s="6">
+        <v>44473</v>
+      </c>
+      <c r="LV5" s="6">
+        <v>44474</v>
+      </c>
+      <c r="LW5" s="6">
+        <v>44475</v>
+      </c>
+      <c r="LX5" s="6">
+        <v>44476</v>
+      </c>
+      <c r="LY5" s="6">
+        <v>44477</v>
+      </c>
+      <c r="LZ5" s="6">
+        <v>44478</v>
+      </c>
+      <c r="MA5" s="6">
+        <v>44479</v>
+      </c>
+      <c r="MB5" s="6">
+        <v>44480</v>
       </c>
     </row>
-    <row r="6" spans="1:214" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" s="8">
         <v>44146</v>
       </c>
       <c r="E6" s="8">
         <v>44153</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -1477,16 +2037,142 @@
       <c r="HD6" s="7"/>
       <c r="HE6" s="7"/>
       <c r="HF6" s="7"/>
+      <c r="HG6" s="7"/>
+      <c r="HH6" s="7"/>
+      <c r="HI6" s="7"/>
+      <c r="HJ6" s="7"/>
+      <c r="HK6" s="7"/>
+      <c r="HL6" s="7"/>
+      <c r="HM6" s="7"/>
+      <c r="HN6" s="7"/>
+      <c r="HO6" s="7"/>
+      <c r="HP6" s="7"/>
+      <c r="HQ6" s="7"/>
+      <c r="HR6" s="7"/>
+      <c r="HS6" s="7"/>
+      <c r="HT6" s="7"/>
+      <c r="HU6" s="7"/>
+      <c r="HV6" s="7"/>
+      <c r="HW6" s="7"/>
+      <c r="HX6" s="7"/>
+      <c r="HY6" s="7"/>
+      <c r="HZ6" s="7"/>
+      <c r="IA6" s="7"/>
+      <c r="IB6" s="7"/>
+      <c r="IC6" s="7"/>
+      <c r="ID6" s="7"/>
+      <c r="IE6" s="7"/>
+      <c r="IF6" s="7"/>
+      <c r="IG6" s="7"/>
+      <c r="IH6" s="7"/>
+      <c r="II6" s="7"/>
+      <c r="IJ6" s="7"/>
+      <c r="IK6" s="7"/>
+      <c r="IL6" s="7"/>
+      <c r="IM6" s="7"/>
+      <c r="IN6" s="7"/>
+      <c r="IO6" s="7"/>
+      <c r="IP6" s="7"/>
+      <c r="IQ6" s="7"/>
+      <c r="IR6" s="7"/>
+      <c r="IS6" s="7"/>
+      <c r="IT6" s="7"/>
+      <c r="IU6" s="7"/>
+      <c r="IV6" s="7"/>
+      <c r="IW6" s="7"/>
+      <c r="IX6" s="7"/>
+      <c r="IY6" s="7"/>
+      <c r="IZ6" s="7"/>
+      <c r="JA6" s="7"/>
+      <c r="JB6" s="7"/>
+      <c r="JC6" s="7"/>
+      <c r="JD6" s="7"/>
+      <c r="JE6" s="7"/>
+      <c r="JF6" s="7"/>
+      <c r="JG6" s="7"/>
+      <c r="JH6" s="7"/>
+      <c r="JI6" s="7"/>
+      <c r="JJ6" s="7"/>
+      <c r="JK6" s="7"/>
+      <c r="JL6" s="7"/>
+      <c r="JM6" s="7"/>
+      <c r="JN6" s="7"/>
+      <c r="JO6" s="7"/>
+      <c r="JP6" s="7"/>
+      <c r="JQ6" s="7"/>
+      <c r="JR6" s="7"/>
+      <c r="JS6" s="7"/>
+      <c r="JT6" s="7"/>
+      <c r="JU6" s="7"/>
+      <c r="JV6" s="7"/>
+      <c r="JW6" s="7"/>
+      <c r="JX6" s="7"/>
+      <c r="JY6" s="7"/>
+      <c r="JZ6" s="7"/>
+      <c r="KA6" s="7"/>
+      <c r="KB6" s="7"/>
+      <c r="KC6" s="7"/>
+      <c r="KD6" s="7"/>
+      <c r="KE6" s="7"/>
+      <c r="KF6" s="7"/>
+      <c r="KG6" s="7"/>
+      <c r="KH6" s="7"/>
+      <c r="KI6" s="7"/>
+      <c r="KJ6" s="7"/>
+      <c r="KK6" s="7"/>
+      <c r="KL6" s="7"/>
+      <c r="KM6" s="7"/>
+      <c r="KN6" s="7"/>
+      <c r="KO6" s="7"/>
+      <c r="KP6" s="7"/>
+      <c r="KQ6" s="7"/>
+      <c r="KR6" s="7"/>
+      <c r="KS6" s="7"/>
+      <c r="KT6" s="7"/>
+      <c r="KU6" s="7"/>
+      <c r="KV6" s="7"/>
+      <c r="KW6" s="7"/>
+      <c r="KX6" s="7"/>
+      <c r="KY6" s="7"/>
+      <c r="KZ6" s="7"/>
+      <c r="LA6" s="7"/>
+      <c r="LB6" s="7"/>
+      <c r="LC6" s="7"/>
+      <c r="LD6" s="7"/>
+      <c r="LE6" s="7"/>
+      <c r="LF6" s="7"/>
+      <c r="LG6" s="7"/>
+      <c r="LH6" s="7"/>
+      <c r="LI6" s="7"/>
+      <c r="LJ6" s="7"/>
+      <c r="LK6" s="7"/>
+      <c r="LL6" s="7"/>
+      <c r="LM6" s="7"/>
+      <c r="LN6" s="7"/>
+      <c r="LO6" s="7"/>
+      <c r="LP6" s="7"/>
+      <c r="LQ6" s="7"/>
+      <c r="LR6" s="7"/>
+      <c r="LS6" s="7"/>
+      <c r="LT6" s="7"/>
+      <c r="LU6" s="7"/>
+      <c r="LV6" s="7"/>
+      <c r="LW6" s="7"/>
+      <c r="LX6" s="7"/>
+      <c r="LY6" s="7"/>
+      <c r="LZ6" s="7"/>
+      <c r="MA6" s="7"/>
+      <c r="MB6" s="7"/>
     </row>
-    <row r="7" spans="1:214" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="8">
         <v>44154</v>
@@ -1502,8 +2188,8 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -1703,15 +2389,143 @@
       <c r="HD7" s="7"/>
       <c r="HE7" s="7"/>
       <c r="HF7" s="7"/>
+      <c r="HG7" s="7"/>
+      <c r="HH7" s="7"/>
+      <c r="HI7" s="7"/>
+      <c r="HJ7" s="7"/>
+      <c r="HK7" s="7"/>
+      <c r="HL7" s="7"/>
+      <c r="HM7" s="7"/>
+      <c r="HN7" s="7"/>
+      <c r="HO7" s="7"/>
+      <c r="HP7" s="7"/>
+      <c r="HQ7" s="7"/>
+      <c r="HR7" s="7"/>
+      <c r="HS7" s="7"/>
+      <c r="HT7" s="7"/>
+      <c r="HU7" s="7"/>
+      <c r="HV7" s="7"/>
+      <c r="HW7" s="7"/>
+      <c r="HX7" s="7"/>
+      <c r="HY7" s="7"/>
+      <c r="HZ7" s="7"/>
+      <c r="IA7" s="7"/>
+      <c r="IB7" s="7"/>
+      <c r="IC7" s="7"/>
+      <c r="ID7" s="7"/>
+      <c r="IE7" s="7"/>
+      <c r="IF7" s="7"/>
+      <c r="IG7" s="7"/>
+      <c r="IH7" s="7"/>
+      <c r="II7" s="7"/>
+      <c r="IJ7" s="7"/>
+      <c r="IK7" s="7"/>
+      <c r="IL7" s="7"/>
+      <c r="IM7" s="7"/>
+      <c r="IN7" s="7"/>
+      <c r="IO7" s="7"/>
+      <c r="IP7" s="7"/>
+      <c r="IQ7" s="7"/>
+      <c r="IR7" s="7"/>
+      <c r="IS7" s="7"/>
+      <c r="IT7" s="7"/>
+      <c r="IU7" s="7"/>
+      <c r="IV7" s="7"/>
+      <c r="IW7" s="7"/>
+      <c r="IX7" s="7"/>
+      <c r="IY7" s="7"/>
+      <c r="IZ7" s="7"/>
+      <c r="JA7" s="7"/>
+      <c r="JB7" s="7"/>
+      <c r="JC7" s="7"/>
+      <c r="JD7" s="7"/>
+      <c r="JE7" s="7"/>
+      <c r="JF7" s="7"/>
+      <c r="JG7" s="7"/>
+      <c r="JH7" s="7"/>
+      <c r="JI7" s="7"/>
+      <c r="JJ7" s="7"/>
+      <c r="JK7" s="7"/>
+      <c r="JL7" s="7"/>
+      <c r="JM7" s="7"/>
+      <c r="JN7" s="7"/>
+      <c r="JO7" s="7"/>
+      <c r="JP7" s="7"/>
+      <c r="JQ7" s="7"/>
+      <c r="JR7" s="7"/>
+      <c r="JS7" s="7"/>
+      <c r="JT7" s="7"/>
+      <c r="JU7" s="7"/>
+      <c r="JV7" s="7"/>
+      <c r="JW7" s="7"/>
+      <c r="JX7" s="7"/>
+      <c r="JY7" s="7"/>
+      <c r="JZ7" s="7"/>
+      <c r="KA7" s="7"/>
+      <c r="KB7" s="7"/>
+      <c r="KC7" s="7"/>
+      <c r="KD7" s="7"/>
+      <c r="KE7" s="7"/>
+      <c r="KF7" s="7"/>
+      <c r="KG7" s="7"/>
+      <c r="KH7" s="7"/>
+      <c r="KI7" s="7"/>
+      <c r="KJ7" s="7"/>
+      <c r="KK7" s="7"/>
+      <c r="KL7" s="7"/>
+      <c r="KM7" s="7"/>
+      <c r="KN7" s="7"/>
+      <c r="KO7" s="7"/>
+      <c r="KP7" s="7"/>
+      <c r="KQ7" s="7"/>
+      <c r="KR7" s="7"/>
+      <c r="KS7" s="7"/>
+      <c r="KT7" s="7"/>
+      <c r="KU7" s="7"/>
+      <c r="KV7" s="7"/>
+      <c r="KW7" s="7"/>
+      <c r="KX7" s="7"/>
+      <c r="KY7" s="7"/>
+      <c r="KZ7" s="7"/>
+      <c r="LA7" s="7"/>
+      <c r="LB7" s="7"/>
+      <c r="LC7" s="7"/>
+      <c r="LD7" s="7"/>
+      <c r="LE7" s="7"/>
+      <c r="LF7" s="7"/>
+      <c r="LG7" s="7"/>
+      <c r="LH7" s="7"/>
+      <c r="LI7" s="7"/>
+      <c r="LJ7" s="7"/>
+      <c r="LK7" s="7"/>
+      <c r="LL7" s="7"/>
+      <c r="LM7" s="7"/>
+      <c r="LN7" s="7"/>
+      <c r="LO7" s="7"/>
+      <c r="LP7" s="7"/>
+      <c r="LQ7" s="7"/>
+      <c r="LR7" s="7"/>
+      <c r="LS7" s="7"/>
+      <c r="LT7" s="7"/>
+      <c r="LU7" s="7"/>
+      <c r="LV7" s="7"/>
+      <c r="LW7" s="7"/>
+      <c r="LX7" s="7"/>
+      <c r="LY7" s="7"/>
+      <c r="LZ7" s="7"/>
+      <c r="MA7" s="7"/>
+      <c r="MB7" s="7"/>
     </row>
-    <row r="8" spans="1:214" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="8">
         <v>44148</v>
       </c>
@@ -1720,28 +2534,28 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
@@ -1927,15 +2741,143 @@
       <c r="HD8" s="7"/>
       <c r="HE8" s="7"/>
       <c r="HF8" s="7"/>
+      <c r="HG8" s="7"/>
+      <c r="HH8" s="7"/>
+      <c r="HI8" s="7"/>
+      <c r="HJ8" s="7"/>
+      <c r="HK8" s="7"/>
+      <c r="HL8" s="7"/>
+      <c r="HM8" s="7"/>
+      <c r="HN8" s="7"/>
+      <c r="HO8" s="7"/>
+      <c r="HP8" s="7"/>
+      <c r="HQ8" s="7"/>
+      <c r="HR8" s="7"/>
+      <c r="HS8" s="7"/>
+      <c r="HT8" s="7"/>
+      <c r="HU8" s="7"/>
+      <c r="HV8" s="7"/>
+      <c r="HW8" s="7"/>
+      <c r="HX8" s="7"/>
+      <c r="HY8" s="7"/>
+      <c r="HZ8" s="7"/>
+      <c r="IA8" s="7"/>
+      <c r="IB8" s="7"/>
+      <c r="IC8" s="7"/>
+      <c r="ID8" s="7"/>
+      <c r="IE8" s="7"/>
+      <c r="IF8" s="7"/>
+      <c r="IG8" s="7"/>
+      <c r="IH8" s="7"/>
+      <c r="II8" s="7"/>
+      <c r="IJ8" s="7"/>
+      <c r="IK8" s="7"/>
+      <c r="IL8" s="7"/>
+      <c r="IM8" s="7"/>
+      <c r="IN8" s="7"/>
+      <c r="IO8" s="7"/>
+      <c r="IP8" s="7"/>
+      <c r="IQ8" s="7"/>
+      <c r="IR8" s="7"/>
+      <c r="IS8" s="7"/>
+      <c r="IT8" s="7"/>
+      <c r="IU8" s="7"/>
+      <c r="IV8" s="7"/>
+      <c r="IW8" s="7"/>
+      <c r="IX8" s="7"/>
+      <c r="IY8" s="7"/>
+      <c r="IZ8" s="7"/>
+      <c r="JA8" s="7"/>
+      <c r="JB8" s="7"/>
+      <c r="JC8" s="7"/>
+      <c r="JD8" s="7"/>
+      <c r="JE8" s="7"/>
+      <c r="JF8" s="7"/>
+      <c r="JG8" s="7"/>
+      <c r="JH8" s="7"/>
+      <c r="JI8" s="7"/>
+      <c r="JJ8" s="7"/>
+      <c r="JK8" s="7"/>
+      <c r="JL8" s="7"/>
+      <c r="JM8" s="7"/>
+      <c r="JN8" s="7"/>
+      <c r="JO8" s="7"/>
+      <c r="JP8" s="7"/>
+      <c r="JQ8" s="7"/>
+      <c r="JR8" s="7"/>
+      <c r="JS8" s="7"/>
+      <c r="JT8" s="7"/>
+      <c r="JU8" s="7"/>
+      <c r="JV8" s="7"/>
+      <c r="JW8" s="7"/>
+      <c r="JX8" s="7"/>
+      <c r="JY8" s="7"/>
+      <c r="JZ8" s="7"/>
+      <c r="KA8" s="7"/>
+      <c r="KB8" s="7"/>
+      <c r="KC8" s="7"/>
+      <c r="KD8" s="7"/>
+      <c r="KE8" s="7"/>
+      <c r="KF8" s="7"/>
+      <c r="KG8" s="7"/>
+      <c r="KH8" s="7"/>
+      <c r="KI8" s="7"/>
+      <c r="KJ8" s="7"/>
+      <c r="KK8" s="7"/>
+      <c r="KL8" s="7"/>
+      <c r="KM8" s="7"/>
+      <c r="KN8" s="7"/>
+      <c r="KO8" s="7"/>
+      <c r="KP8" s="7"/>
+      <c r="KQ8" s="7"/>
+      <c r="KR8" s="7"/>
+      <c r="KS8" s="7"/>
+      <c r="KT8" s="7"/>
+      <c r="KU8" s="7"/>
+      <c r="KV8" s="7"/>
+      <c r="KW8" s="7"/>
+      <c r="KX8" s="7"/>
+      <c r="KY8" s="7"/>
+      <c r="KZ8" s="7"/>
+      <c r="LA8" s="7"/>
+      <c r="LB8" s="7"/>
+      <c r="LC8" s="7"/>
+      <c r="LD8" s="7"/>
+      <c r="LE8" s="7"/>
+      <c r="LF8" s="7"/>
+      <c r="LG8" s="7"/>
+      <c r="LH8" s="7"/>
+      <c r="LI8" s="7"/>
+      <c r="LJ8" s="7"/>
+      <c r="LK8" s="7"/>
+      <c r="LL8" s="7"/>
+      <c r="LM8" s="7"/>
+      <c r="LN8" s="7"/>
+      <c r="LO8" s="7"/>
+      <c r="LP8" s="7"/>
+      <c r="LQ8" s="7"/>
+      <c r="LR8" s="7"/>
+      <c r="LS8" s="7"/>
+      <c r="LT8" s="7"/>
+      <c r="LU8" s="7"/>
+      <c r="LV8" s="7"/>
+      <c r="LW8" s="7"/>
+      <c r="LX8" s="7"/>
+      <c r="LY8" s="7"/>
+      <c r="LZ8" s="7"/>
+      <c r="MA8" s="7"/>
+      <c r="MB8" s="7"/>
     </row>
-    <row r="9" spans="1:214" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="8">
         <v>44155</v>
       </c>
@@ -1951,37 +2893,37 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9"/>
@@ -2151,15 +3093,143 @@
       <c r="HD9" s="7"/>
       <c r="HE9" s="7"/>
       <c r="HF9" s="7"/>
+      <c r="HG9" s="7"/>
+      <c r="HH9" s="7"/>
+      <c r="HI9" s="7"/>
+      <c r="HJ9" s="7"/>
+      <c r="HK9" s="7"/>
+      <c r="HL9" s="7"/>
+      <c r="HM9" s="7"/>
+      <c r="HN9" s="7"/>
+      <c r="HO9" s="7"/>
+      <c r="HP9" s="7"/>
+      <c r="HQ9" s="7"/>
+      <c r="HR9" s="7"/>
+      <c r="HS9" s="7"/>
+      <c r="HT9" s="7"/>
+      <c r="HU9" s="7"/>
+      <c r="HV9" s="7"/>
+      <c r="HW9" s="7"/>
+      <c r="HX9" s="7"/>
+      <c r="HY9" s="7"/>
+      <c r="HZ9" s="7"/>
+      <c r="IA9" s="7"/>
+      <c r="IB9" s="7"/>
+      <c r="IC9" s="7"/>
+      <c r="ID9" s="7"/>
+      <c r="IE9" s="7"/>
+      <c r="IF9" s="7"/>
+      <c r="IG9" s="7"/>
+      <c r="IH9" s="7"/>
+      <c r="II9" s="7"/>
+      <c r="IJ9" s="7"/>
+      <c r="IK9" s="7"/>
+      <c r="IL9" s="7"/>
+      <c r="IM9" s="7"/>
+      <c r="IN9" s="7"/>
+      <c r="IO9" s="7"/>
+      <c r="IP9" s="7"/>
+      <c r="IQ9" s="7"/>
+      <c r="IR9" s="7"/>
+      <c r="IS9" s="7"/>
+      <c r="IT9" s="7"/>
+      <c r="IU9" s="7"/>
+      <c r="IV9" s="7"/>
+      <c r="IW9" s="7"/>
+      <c r="IX9" s="7"/>
+      <c r="IY9" s="7"/>
+      <c r="IZ9" s="7"/>
+      <c r="JA9" s="7"/>
+      <c r="JB9" s="7"/>
+      <c r="JC9" s="7"/>
+      <c r="JD9" s="7"/>
+      <c r="JE9" s="7"/>
+      <c r="JF9" s="7"/>
+      <c r="JG9" s="7"/>
+      <c r="JH9" s="7"/>
+      <c r="JI9" s="7"/>
+      <c r="JJ9" s="7"/>
+      <c r="JK9" s="7"/>
+      <c r="JL9" s="7"/>
+      <c r="JM9" s="7"/>
+      <c r="JN9" s="7"/>
+      <c r="JO9" s="7"/>
+      <c r="JP9" s="7"/>
+      <c r="JQ9" s="7"/>
+      <c r="JR9" s="7"/>
+      <c r="JS9" s="7"/>
+      <c r="JT9" s="7"/>
+      <c r="JU9" s="7"/>
+      <c r="JV9" s="7"/>
+      <c r="JW9" s="7"/>
+      <c r="JX9" s="7"/>
+      <c r="JY9" s="7"/>
+      <c r="JZ9" s="7"/>
+      <c r="KA9" s="7"/>
+      <c r="KB9" s="7"/>
+      <c r="KC9" s="7"/>
+      <c r="KD9" s="7"/>
+      <c r="KE9" s="7"/>
+      <c r="KF9" s="7"/>
+      <c r="KG9" s="7"/>
+      <c r="KH9" s="7"/>
+      <c r="KI9" s="7"/>
+      <c r="KJ9" s="7"/>
+      <c r="KK9" s="7"/>
+      <c r="KL9" s="7"/>
+      <c r="KM9" s="7"/>
+      <c r="KN9" s="7"/>
+      <c r="KO9" s="7"/>
+      <c r="KP9" s="7"/>
+      <c r="KQ9" s="7"/>
+      <c r="KR9" s="7"/>
+      <c r="KS9" s="7"/>
+      <c r="KT9" s="7"/>
+      <c r="KU9" s="7"/>
+      <c r="KV9" s="7"/>
+      <c r="KW9" s="7"/>
+      <c r="KX9" s="7"/>
+      <c r="KY9" s="7"/>
+      <c r="KZ9" s="7"/>
+      <c r="LA9" s="7"/>
+      <c r="LB9" s="7"/>
+      <c r="LC9" s="7"/>
+      <c r="LD9" s="7"/>
+      <c r="LE9" s="7"/>
+      <c r="LF9" s="7"/>
+      <c r="LG9" s="7"/>
+      <c r="LH9" s="7"/>
+      <c r="LI9" s="7"/>
+      <c r="LJ9" s="7"/>
+      <c r="LK9" s="7"/>
+      <c r="LL9" s="7"/>
+      <c r="LM9" s="7"/>
+      <c r="LN9" s="7"/>
+      <c r="LO9" s="7"/>
+      <c r="LP9" s="7"/>
+      <c r="LQ9" s="7"/>
+      <c r="LR9" s="7"/>
+      <c r="LS9" s="7"/>
+      <c r="LT9" s="7"/>
+      <c r="LU9" s="7"/>
+      <c r="LV9" s="7"/>
+      <c r="LW9" s="7"/>
+      <c r="LX9" s="7"/>
+      <c r="LY9" s="7"/>
+      <c r="LZ9" s="7"/>
+      <c r="MA9" s="7"/>
+      <c r="MB9" s="7"/>
     </row>
-    <row r="10" spans="1:214" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="8">
         <v>44186</v>
       </c>
@@ -2206,17 +3276,17 @@
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
       <c r="BG10" s="9"/>
@@ -2375,17 +3445,145 @@
       <c r="HD10" s="7"/>
       <c r="HE10" s="7"/>
       <c r="HF10" s="7"/>
+      <c r="HG10" s="7"/>
+      <c r="HH10" s="7"/>
+      <c r="HI10" s="7"/>
+      <c r="HJ10" s="7"/>
+      <c r="HK10" s="7"/>
+      <c r="HL10" s="7"/>
+      <c r="HM10" s="7"/>
+      <c r="HN10" s="7"/>
+      <c r="HO10" s="7"/>
+      <c r="HP10" s="7"/>
+      <c r="HQ10" s="7"/>
+      <c r="HR10" s="7"/>
+      <c r="HS10" s="7"/>
+      <c r="HT10" s="7"/>
+      <c r="HU10" s="7"/>
+      <c r="HV10" s="7"/>
+      <c r="HW10" s="7"/>
+      <c r="HX10" s="7"/>
+      <c r="HY10" s="7"/>
+      <c r="HZ10" s="7"/>
+      <c r="IA10" s="7"/>
+      <c r="IB10" s="7"/>
+      <c r="IC10" s="7"/>
+      <c r="ID10" s="7"/>
+      <c r="IE10" s="7"/>
+      <c r="IF10" s="7"/>
+      <c r="IG10" s="7"/>
+      <c r="IH10" s="7"/>
+      <c r="II10" s="7"/>
+      <c r="IJ10" s="7"/>
+      <c r="IK10" s="7"/>
+      <c r="IL10" s="7"/>
+      <c r="IM10" s="7"/>
+      <c r="IN10" s="7"/>
+      <c r="IO10" s="7"/>
+      <c r="IP10" s="7"/>
+      <c r="IQ10" s="7"/>
+      <c r="IR10" s="7"/>
+      <c r="IS10" s="7"/>
+      <c r="IT10" s="7"/>
+      <c r="IU10" s="7"/>
+      <c r="IV10" s="7"/>
+      <c r="IW10" s="7"/>
+      <c r="IX10" s="7"/>
+      <c r="IY10" s="7"/>
+      <c r="IZ10" s="7"/>
+      <c r="JA10" s="7"/>
+      <c r="JB10" s="7"/>
+      <c r="JC10" s="7"/>
+      <c r="JD10" s="7"/>
+      <c r="JE10" s="7"/>
+      <c r="JF10" s="7"/>
+      <c r="JG10" s="7"/>
+      <c r="JH10" s="7"/>
+      <c r="JI10" s="7"/>
+      <c r="JJ10" s="7"/>
+      <c r="JK10" s="7"/>
+      <c r="JL10" s="7"/>
+      <c r="JM10" s="7"/>
+      <c r="JN10" s="7"/>
+      <c r="JO10" s="7"/>
+      <c r="JP10" s="7"/>
+      <c r="JQ10" s="7"/>
+      <c r="JR10" s="7"/>
+      <c r="JS10" s="7"/>
+      <c r="JT10" s="7"/>
+      <c r="JU10" s="7"/>
+      <c r="JV10" s="7"/>
+      <c r="JW10" s="7"/>
+      <c r="JX10" s="7"/>
+      <c r="JY10" s="7"/>
+      <c r="JZ10" s="7"/>
+      <c r="KA10" s="7"/>
+      <c r="KB10" s="7"/>
+      <c r="KC10" s="7"/>
+      <c r="KD10" s="7"/>
+      <c r="KE10" s="7"/>
+      <c r="KF10" s="7"/>
+      <c r="KG10" s="7"/>
+      <c r="KH10" s="7"/>
+      <c r="KI10" s="7"/>
+      <c r="KJ10" s="7"/>
+      <c r="KK10" s="7"/>
+      <c r="KL10" s="7"/>
+      <c r="KM10" s="7"/>
+      <c r="KN10" s="7"/>
+      <c r="KO10" s="7"/>
+      <c r="KP10" s="7"/>
+      <c r="KQ10" s="7"/>
+      <c r="KR10" s="7"/>
+      <c r="KS10" s="7"/>
+      <c r="KT10" s="7"/>
+      <c r="KU10" s="7"/>
+      <c r="KV10" s="7"/>
+      <c r="KW10" s="7"/>
+      <c r="KX10" s="7"/>
+      <c r="KY10" s="7"/>
+      <c r="KZ10" s="7"/>
+      <c r="LA10" s="7"/>
+      <c r="LB10" s="7"/>
+      <c r="LC10" s="7"/>
+      <c r="LD10" s="7"/>
+      <c r="LE10" s="7"/>
+      <c r="LF10" s="7"/>
+      <c r="LG10" s="7"/>
+      <c r="LH10" s="7"/>
+      <c r="LI10" s="7"/>
+      <c r="LJ10" s="7"/>
+      <c r="LK10" s="7"/>
+      <c r="LL10" s="7"/>
+      <c r="LM10" s="7"/>
+      <c r="LN10" s="7"/>
+      <c r="LO10" s="7"/>
+      <c r="LP10" s="7"/>
+      <c r="LQ10" s="7"/>
+      <c r="LR10" s="7"/>
+      <c r="LS10" s="7"/>
+      <c r="LT10" s="7"/>
+      <c r="LU10" s="7"/>
+      <c r="LV10" s="7"/>
+      <c r="LW10" s="7"/>
+      <c r="LX10" s="7"/>
+      <c r="LY10" s="7"/>
+      <c r="LZ10" s="7"/>
+      <c r="MA10" s="7"/>
+      <c r="MB10" s="7"/>
     </row>
-    <row r="11" spans="1:214" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="8">
-        <v>44200</v>
+        <v>44520</v>
       </c>
       <c r="E11" s="8">
         <v>44290</v>
@@ -2399,51 +3597,51 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
-      <c r="BF11" s="9"/>
-      <c r="BG11" s="9"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="17"/>
+      <c r="BF11" s="17"/>
+      <c r="BG11" s="17"/>
       <c r="BH11" s="17"/>
       <c r="BI11" s="17"/>
       <c r="BJ11" s="17"/>
@@ -2599,15 +3797,143 @@
       <c r="HD11" s="7"/>
       <c r="HE11" s="7"/>
       <c r="HF11" s="7"/>
+      <c r="HG11" s="7"/>
+      <c r="HH11" s="7"/>
+      <c r="HI11" s="7"/>
+      <c r="HJ11" s="7"/>
+      <c r="HK11" s="7"/>
+      <c r="HL11" s="7"/>
+      <c r="HM11" s="7"/>
+      <c r="HN11" s="7"/>
+      <c r="HO11" s="7"/>
+      <c r="HP11" s="7"/>
+      <c r="HQ11" s="7"/>
+      <c r="HR11" s="7"/>
+      <c r="HS11" s="7"/>
+      <c r="HT11" s="7"/>
+      <c r="HU11" s="7"/>
+      <c r="HV11" s="7"/>
+      <c r="HW11" s="7"/>
+      <c r="HX11" s="7"/>
+      <c r="HY11" s="7"/>
+      <c r="HZ11" s="7"/>
+      <c r="IA11" s="7"/>
+      <c r="IB11" s="7"/>
+      <c r="IC11" s="7"/>
+      <c r="ID11" s="7"/>
+      <c r="IE11" s="7"/>
+      <c r="IF11" s="7"/>
+      <c r="IG11" s="7"/>
+      <c r="IH11" s="7"/>
+      <c r="II11" s="7"/>
+      <c r="IJ11" s="7"/>
+      <c r="IK11" s="7"/>
+      <c r="IL11" s="7"/>
+      <c r="IM11" s="7"/>
+      <c r="IN11" s="7"/>
+      <c r="IO11" s="7"/>
+      <c r="IP11" s="7"/>
+      <c r="IQ11" s="7"/>
+      <c r="IR11" s="7"/>
+      <c r="IS11" s="7"/>
+      <c r="IT11" s="7"/>
+      <c r="IU11" s="7"/>
+      <c r="IV11" s="7"/>
+      <c r="IW11" s="7"/>
+      <c r="IX11" s="7"/>
+      <c r="IY11" s="7"/>
+      <c r="IZ11" s="7"/>
+      <c r="JA11" s="7"/>
+      <c r="JB11" s="7"/>
+      <c r="JC11" s="7"/>
+      <c r="JD11" s="7"/>
+      <c r="JE11" s="7"/>
+      <c r="JF11" s="7"/>
+      <c r="JG11" s="7"/>
+      <c r="JH11" s="7"/>
+      <c r="JI11" s="7"/>
+      <c r="JJ11" s="7"/>
+      <c r="JK11" s="7"/>
+      <c r="JL11" s="7"/>
+      <c r="JM11" s="7"/>
+      <c r="JN11" s="7"/>
+      <c r="JO11" s="7"/>
+      <c r="JP11" s="7"/>
+      <c r="JQ11" s="7"/>
+      <c r="JR11" s="7"/>
+      <c r="JS11" s="7"/>
+      <c r="JT11" s="7"/>
+      <c r="JU11" s="7"/>
+      <c r="JV11" s="7"/>
+      <c r="JW11" s="7"/>
+      <c r="JX11" s="7"/>
+      <c r="JY11" s="7"/>
+      <c r="JZ11" s="7"/>
+      <c r="KA11" s="7"/>
+      <c r="KB11" s="7"/>
+      <c r="KC11" s="7"/>
+      <c r="KD11" s="7"/>
+      <c r="KE11" s="7"/>
+      <c r="KF11" s="7"/>
+      <c r="KG11" s="7"/>
+      <c r="KH11" s="7"/>
+      <c r="KI11" s="7"/>
+      <c r="KJ11" s="7"/>
+      <c r="KK11" s="7"/>
+      <c r="KL11" s="7"/>
+      <c r="KM11" s="7"/>
+      <c r="KN11" s="7"/>
+      <c r="KO11" s="7"/>
+      <c r="KP11" s="7"/>
+      <c r="KQ11" s="7"/>
+      <c r="KR11" s="7"/>
+      <c r="KS11" s="7"/>
+      <c r="KT11" s="7"/>
+      <c r="KU11" s="7"/>
+      <c r="KV11" s="7"/>
+      <c r="KW11" s="7"/>
+      <c r="KX11" s="7"/>
+      <c r="KY11" s="7"/>
+      <c r="KZ11" s="7"/>
+      <c r="LA11" s="7"/>
+      <c r="LB11" s="7"/>
+      <c r="LC11" s="7"/>
+      <c r="LD11" s="7"/>
+      <c r="LE11" s="7"/>
+      <c r="LF11" s="7"/>
+      <c r="LG11" s="7"/>
+      <c r="LH11" s="7"/>
+      <c r="LI11" s="7"/>
+      <c r="LJ11" s="7"/>
+      <c r="LK11" s="7"/>
+      <c r="LL11" s="7"/>
+      <c r="LM11" s="7"/>
+      <c r="LN11" s="7"/>
+      <c r="LO11" s="7"/>
+      <c r="LP11" s="7"/>
+      <c r="LQ11" s="7"/>
+      <c r="LR11" s="7"/>
+      <c r="LS11" s="7"/>
+      <c r="LT11" s="7"/>
+      <c r="LU11" s="7"/>
+      <c r="LV11" s="7"/>
+      <c r="LW11" s="7"/>
+      <c r="LX11" s="7"/>
+      <c r="LY11" s="7"/>
+      <c r="LZ11" s="7"/>
+      <c r="MA11" s="7"/>
+      <c r="MB11" s="7"/>
     </row>
-    <row r="12" spans="1:214" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="8">
         <v>44291</v>
       </c>
@@ -2823,15 +4149,143 @@
       <c r="HD12" s="7"/>
       <c r="HE12" s="7"/>
       <c r="HF12" s="7"/>
+      <c r="HG12" s="7"/>
+      <c r="HH12" s="7"/>
+      <c r="HI12" s="7"/>
+      <c r="HJ12" s="7"/>
+      <c r="HK12" s="7"/>
+      <c r="HL12" s="7"/>
+      <c r="HM12" s="7"/>
+      <c r="HN12" s="7"/>
+      <c r="HO12" s="7"/>
+      <c r="HP12" s="7"/>
+      <c r="HQ12" s="7"/>
+      <c r="HR12" s="7"/>
+      <c r="HS12" s="7"/>
+      <c r="HT12" s="7"/>
+      <c r="HU12" s="7"/>
+      <c r="HV12" s="7"/>
+      <c r="HW12" s="7"/>
+      <c r="HX12" s="7"/>
+      <c r="HY12" s="7"/>
+      <c r="HZ12" s="7"/>
+      <c r="IA12" s="7"/>
+      <c r="IB12" s="7"/>
+      <c r="IC12" s="7"/>
+      <c r="ID12" s="7"/>
+      <c r="IE12" s="7"/>
+      <c r="IF12" s="7"/>
+      <c r="IG12" s="7"/>
+      <c r="IH12" s="7"/>
+      <c r="II12" s="7"/>
+      <c r="IJ12" s="7"/>
+      <c r="IK12" s="7"/>
+      <c r="IL12" s="7"/>
+      <c r="IM12" s="7"/>
+      <c r="IN12" s="7"/>
+      <c r="IO12" s="7"/>
+      <c r="IP12" s="7"/>
+      <c r="IQ12" s="7"/>
+      <c r="IR12" s="7"/>
+      <c r="IS12" s="7"/>
+      <c r="IT12" s="7"/>
+      <c r="IU12" s="7"/>
+      <c r="IV12" s="7"/>
+      <c r="IW12" s="7"/>
+      <c r="IX12" s="7"/>
+      <c r="IY12" s="7"/>
+      <c r="IZ12" s="7"/>
+      <c r="JA12" s="7"/>
+      <c r="JB12" s="7"/>
+      <c r="JC12" s="7"/>
+      <c r="JD12" s="7"/>
+      <c r="JE12" s="7"/>
+      <c r="JF12" s="7"/>
+      <c r="JG12" s="7"/>
+      <c r="JH12" s="7"/>
+      <c r="JI12" s="7"/>
+      <c r="JJ12" s="7"/>
+      <c r="JK12" s="7"/>
+      <c r="JL12" s="7"/>
+      <c r="JM12" s="7"/>
+      <c r="JN12" s="7"/>
+      <c r="JO12" s="7"/>
+      <c r="JP12" s="7"/>
+      <c r="JQ12" s="7"/>
+      <c r="JR12" s="7"/>
+      <c r="JS12" s="7"/>
+      <c r="JT12" s="7"/>
+      <c r="JU12" s="7"/>
+      <c r="JV12" s="7"/>
+      <c r="JW12" s="7"/>
+      <c r="JX12" s="7"/>
+      <c r="JY12" s="7"/>
+      <c r="JZ12" s="7"/>
+      <c r="KA12" s="7"/>
+      <c r="KB12" s="7"/>
+      <c r="KC12" s="7"/>
+      <c r="KD12" s="7"/>
+      <c r="KE12" s="7"/>
+      <c r="KF12" s="7"/>
+      <c r="KG12" s="7"/>
+      <c r="KH12" s="7"/>
+      <c r="KI12" s="7"/>
+      <c r="KJ12" s="7"/>
+      <c r="KK12" s="7"/>
+      <c r="KL12" s="7"/>
+      <c r="KM12" s="7"/>
+      <c r="KN12" s="7"/>
+      <c r="KO12" s="7"/>
+      <c r="KP12" s="7"/>
+      <c r="KQ12" s="7"/>
+      <c r="KR12" s="7"/>
+      <c r="KS12" s="7"/>
+      <c r="KT12" s="7"/>
+      <c r="KU12" s="7"/>
+      <c r="KV12" s="7"/>
+      <c r="KW12" s="7"/>
+      <c r="KX12" s="7"/>
+      <c r="KY12" s="7"/>
+      <c r="KZ12" s="7"/>
+      <c r="LA12" s="7"/>
+      <c r="LB12" s="7"/>
+      <c r="LC12" s="7"/>
+      <c r="LD12" s="7"/>
+      <c r="LE12" s="7"/>
+      <c r="LF12" s="7"/>
+      <c r="LG12" s="7"/>
+      <c r="LH12" s="7"/>
+      <c r="LI12" s="7"/>
+      <c r="LJ12" s="7"/>
+      <c r="LK12" s="7"/>
+      <c r="LL12" s="7"/>
+      <c r="LM12" s="7"/>
+      <c r="LN12" s="7"/>
+      <c r="LO12" s="7"/>
+      <c r="LP12" s="7"/>
+      <c r="LQ12" s="7"/>
+      <c r="LR12" s="7"/>
+      <c r="LS12" s="7"/>
+      <c r="LT12" s="7"/>
+      <c r="LU12" s="7"/>
+      <c r="LV12" s="7"/>
+      <c r="LW12" s="7"/>
+      <c r="LX12" s="7"/>
+      <c r="LY12" s="7"/>
+      <c r="LZ12" s="7"/>
+      <c r="MA12" s="7"/>
+      <c r="MB12" s="7"/>
     </row>
-    <row r="13" spans="1:214" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="8">
         <v>44322</v>
       </c>
@@ -3047,11 +4501,503 @@
       <c r="HD13" s="20"/>
       <c r="HE13" s="20"/>
       <c r="HF13" s="7"/>
+      <c r="HG13" s="7"/>
+      <c r="HH13" s="7"/>
+      <c r="HI13" s="7"/>
+      <c r="HJ13" s="7"/>
+      <c r="HK13" s="7"/>
+      <c r="HL13" s="7"/>
+      <c r="HM13" s="7"/>
+      <c r="HN13" s="7"/>
+      <c r="HO13" s="7"/>
+      <c r="HP13" s="7"/>
+      <c r="HQ13" s="7"/>
+      <c r="HR13" s="7"/>
+      <c r="HS13" s="7"/>
+      <c r="HT13" s="7"/>
+      <c r="HU13" s="7"/>
+      <c r="HV13" s="7"/>
+      <c r="HW13" s="7"/>
+      <c r="HX13" s="7"/>
+      <c r="HY13" s="7"/>
+      <c r="HZ13" s="7"/>
+      <c r="IA13" s="7"/>
+      <c r="IB13" s="7"/>
+      <c r="IC13" s="7"/>
+      <c r="ID13" s="7"/>
+      <c r="IE13" s="7"/>
+      <c r="IF13" s="7"/>
+      <c r="IG13" s="7"/>
+      <c r="IH13" s="7"/>
+      <c r="II13" s="7"/>
+      <c r="IJ13" s="7"/>
+      <c r="IK13" s="7"/>
+      <c r="IL13" s="7"/>
+      <c r="IM13" s="7"/>
+      <c r="IN13" s="7"/>
+      <c r="IO13" s="7"/>
+      <c r="IP13" s="7"/>
+      <c r="IQ13" s="7"/>
+      <c r="IR13" s="7"/>
+      <c r="IS13" s="7"/>
+      <c r="IT13" s="7"/>
+      <c r="IU13" s="7"/>
+      <c r="IV13" s="7"/>
+      <c r="IW13" s="7"/>
+      <c r="IX13" s="7"/>
+      <c r="IY13" s="7"/>
+      <c r="IZ13" s="7"/>
+      <c r="JA13" s="7"/>
+      <c r="JB13" s="7"/>
+      <c r="JC13" s="7"/>
+      <c r="JD13" s="7"/>
+      <c r="JE13" s="7"/>
+      <c r="JF13" s="7"/>
+      <c r="JG13" s="7"/>
+      <c r="JH13" s="7"/>
+      <c r="JI13" s="7"/>
+      <c r="JJ13" s="7"/>
+      <c r="JK13" s="7"/>
+      <c r="JL13" s="7"/>
+      <c r="JM13" s="7"/>
+      <c r="JN13" s="7"/>
+      <c r="JO13" s="7"/>
+      <c r="JP13" s="7"/>
+      <c r="JQ13" s="7"/>
+      <c r="JR13" s="7"/>
+      <c r="JS13" s="7"/>
+      <c r="JT13" s="7"/>
+      <c r="JU13" s="7"/>
+      <c r="JV13" s="7"/>
+      <c r="JW13" s="7"/>
+      <c r="JX13" s="7"/>
+      <c r="JY13" s="7"/>
+      <c r="JZ13" s="7"/>
+      <c r="KA13" s="7"/>
+      <c r="KB13" s="7"/>
+      <c r="KC13" s="7"/>
+      <c r="KD13" s="7"/>
+      <c r="KE13" s="7"/>
+      <c r="KF13" s="7"/>
+      <c r="KG13" s="7"/>
+      <c r="KH13" s="7"/>
+      <c r="KI13" s="7"/>
+      <c r="KJ13" s="7"/>
+      <c r="KK13" s="7"/>
+      <c r="KL13" s="7"/>
+      <c r="KM13" s="7"/>
+      <c r="KN13" s="7"/>
+      <c r="KO13" s="7"/>
+      <c r="KP13" s="7"/>
+      <c r="KQ13" s="7"/>
+      <c r="KR13" s="7"/>
+      <c r="KS13" s="7"/>
+      <c r="KT13" s="7"/>
+      <c r="KU13" s="7"/>
+      <c r="KV13" s="7"/>
+      <c r="KW13" s="7"/>
+      <c r="KX13" s="7"/>
+      <c r="KY13" s="7"/>
+      <c r="KZ13" s="7"/>
+      <c r="LA13" s="7"/>
+      <c r="LB13" s="7"/>
+      <c r="LC13" s="7"/>
+      <c r="LD13" s="7"/>
+      <c r="LE13" s="7"/>
+      <c r="LF13" s="7"/>
+      <c r="LG13" s="7"/>
+      <c r="LH13" s="7"/>
+      <c r="LI13" s="7"/>
+      <c r="LJ13" s="7"/>
+      <c r="LK13" s="7"/>
+      <c r="LL13" s="7"/>
+      <c r="LM13" s="7"/>
+      <c r="LN13" s="7"/>
+      <c r="LO13" s="7"/>
+      <c r="LP13" s="7"/>
+      <c r="LQ13" s="7"/>
+      <c r="LR13" s="7"/>
+      <c r="LS13" s="7"/>
+      <c r="LT13" s="7"/>
+      <c r="LU13" s="7"/>
+      <c r="LV13" s="7"/>
+      <c r="LW13" s="7"/>
+      <c r="LX13" s="7"/>
+      <c r="LY13" s="7"/>
+      <c r="LZ13" s="7"/>
+      <c r="MA13" s="7"/>
+      <c r="MB13" s="7"/>
+    </row>
+    <row r="14" spans="1:340" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="8">
+        <v>44291</v>
+      </c>
+      <c r="E14" s="8">
+        <v>44479</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
+      <c r="CM14" s="9"/>
+      <c r="CN14" s="9"/>
+      <c r="CO14" s="9"/>
+      <c r="CP14" s="9"/>
+      <c r="CQ14" s="9"/>
+      <c r="CR14" s="9"/>
+      <c r="CS14" s="9"/>
+      <c r="CT14" s="9"/>
+      <c r="CU14" s="9"/>
+      <c r="CV14" s="9"/>
+      <c r="CW14" s="9"/>
+      <c r="CX14" s="9"/>
+      <c r="CY14" s="9"/>
+      <c r="CZ14" s="9"/>
+      <c r="DA14" s="9"/>
+      <c r="DB14" s="9"/>
+      <c r="DC14" s="9"/>
+      <c r="DD14" s="9"/>
+      <c r="DE14" s="9"/>
+      <c r="DF14" s="9"/>
+      <c r="DG14" s="9"/>
+      <c r="DH14" s="9"/>
+      <c r="DI14" s="9"/>
+      <c r="DJ14" s="9"/>
+      <c r="DK14" s="9"/>
+      <c r="DL14" s="9"/>
+      <c r="DM14" s="9"/>
+      <c r="DN14" s="9"/>
+      <c r="DO14" s="9"/>
+      <c r="DP14" s="9"/>
+      <c r="DQ14" s="9"/>
+      <c r="DR14" s="9"/>
+      <c r="DS14" s="9"/>
+      <c r="DT14" s="9"/>
+      <c r="DU14" s="9"/>
+      <c r="DV14" s="9"/>
+      <c r="DW14" s="9"/>
+      <c r="DX14" s="9"/>
+      <c r="DY14" s="9"/>
+      <c r="DZ14" s="9"/>
+      <c r="EA14" s="9"/>
+      <c r="EB14" s="9"/>
+      <c r="EC14" s="9"/>
+      <c r="ED14" s="9"/>
+      <c r="EE14" s="9"/>
+      <c r="EF14" s="9"/>
+      <c r="EG14" s="9"/>
+      <c r="EH14" s="9"/>
+      <c r="EI14" s="9"/>
+      <c r="EJ14" s="9"/>
+      <c r="EK14" s="9"/>
+      <c r="EL14" s="9"/>
+      <c r="EM14" s="9"/>
+      <c r="EN14" s="9"/>
+      <c r="EO14" s="9"/>
+      <c r="EP14" s="9"/>
+      <c r="EQ14" s="9"/>
+      <c r="ER14" s="9"/>
+      <c r="ES14" s="9"/>
+      <c r="ET14" s="9"/>
+      <c r="EU14" s="9"/>
+      <c r="EV14" s="16"/>
+      <c r="EW14" s="16"/>
+      <c r="EX14" s="16"/>
+      <c r="EY14" s="16"/>
+      <c r="EZ14" s="16"/>
+      <c r="FA14" s="16"/>
+      <c r="FB14" s="16"/>
+      <c r="FC14" s="16"/>
+      <c r="FD14" s="16"/>
+      <c r="FE14" s="16"/>
+      <c r="FF14" s="16"/>
+      <c r="FG14" s="16"/>
+      <c r="FH14" s="16"/>
+      <c r="FI14" s="16"/>
+      <c r="FJ14" s="16"/>
+      <c r="FK14" s="16"/>
+      <c r="FL14" s="16"/>
+      <c r="FM14" s="16"/>
+      <c r="FN14" s="16"/>
+      <c r="FO14" s="16"/>
+      <c r="FP14" s="16"/>
+      <c r="FQ14" s="16"/>
+      <c r="FR14" s="16"/>
+      <c r="FS14" s="16"/>
+      <c r="FT14" s="16"/>
+      <c r="FU14" s="16"/>
+      <c r="FV14" s="16"/>
+      <c r="FW14" s="16"/>
+      <c r="FX14" s="16"/>
+      <c r="FY14" s="16"/>
+      <c r="FZ14" s="16"/>
+      <c r="GA14" s="16"/>
+      <c r="GB14" s="16"/>
+      <c r="GC14" s="16"/>
+      <c r="GD14" s="16"/>
+      <c r="GE14" s="16"/>
+      <c r="GF14" s="16"/>
+      <c r="GG14" s="16"/>
+      <c r="GH14" s="16"/>
+      <c r="GI14" s="16"/>
+      <c r="GJ14" s="16"/>
+      <c r="GK14" s="16"/>
+      <c r="GL14" s="16"/>
+      <c r="GM14" s="16"/>
+      <c r="GN14" s="16"/>
+      <c r="GO14" s="16"/>
+      <c r="GP14" s="16"/>
+      <c r="GQ14" s="16"/>
+      <c r="GR14" s="16"/>
+      <c r="GS14" s="16"/>
+      <c r="GT14" s="16"/>
+      <c r="GU14" s="16"/>
+      <c r="GV14" s="16"/>
+      <c r="GW14" s="16"/>
+      <c r="GX14" s="16"/>
+      <c r="GY14" s="16"/>
+      <c r="GZ14" s="16"/>
+      <c r="HA14" s="16"/>
+      <c r="HB14" s="16"/>
+      <c r="HC14" s="16"/>
+      <c r="HD14" s="16"/>
+      <c r="HE14" s="16"/>
+      <c r="HF14" s="16"/>
+      <c r="HG14" s="16"/>
+      <c r="HH14" s="16"/>
+      <c r="HI14" s="16"/>
+      <c r="HJ14" s="16"/>
+      <c r="HK14" s="16"/>
+      <c r="HL14" s="16"/>
+      <c r="HM14" s="16"/>
+      <c r="HN14" s="16"/>
+      <c r="HO14" s="16"/>
+      <c r="HP14" s="16"/>
+      <c r="HQ14" s="16"/>
+      <c r="HR14" s="16"/>
+      <c r="HS14" s="16"/>
+      <c r="HT14" s="16"/>
+      <c r="HU14" s="16"/>
+      <c r="HV14" s="16"/>
+      <c r="HW14" s="16"/>
+      <c r="HX14" s="16"/>
+      <c r="HY14" s="16"/>
+      <c r="HZ14" s="16"/>
+      <c r="IA14" s="16"/>
+      <c r="IB14" s="16"/>
+      <c r="IC14" s="16"/>
+      <c r="ID14" s="16"/>
+      <c r="IE14" s="16"/>
+      <c r="IF14" s="16"/>
+      <c r="IG14" s="16"/>
+      <c r="IH14" s="16"/>
+      <c r="II14" s="16"/>
+      <c r="IJ14" s="16"/>
+      <c r="IK14" s="16"/>
+      <c r="IL14" s="16"/>
+      <c r="IM14" s="16"/>
+      <c r="IN14" s="16"/>
+      <c r="IO14" s="16"/>
+      <c r="IP14" s="16"/>
+      <c r="IQ14" s="16"/>
+      <c r="IR14" s="16"/>
+      <c r="IS14" s="16"/>
+      <c r="IT14" s="16"/>
+      <c r="IU14" s="16"/>
+      <c r="IV14" s="16"/>
+      <c r="IW14" s="16"/>
+      <c r="IX14" s="16"/>
+      <c r="IY14" s="16"/>
+      <c r="IZ14" s="16"/>
+      <c r="JA14" s="16"/>
+      <c r="JB14" s="16"/>
+      <c r="JC14" s="16"/>
+      <c r="JD14" s="16"/>
+      <c r="JE14" s="16"/>
+      <c r="JF14" s="16"/>
+      <c r="JG14" s="16"/>
+      <c r="JH14" s="16"/>
+      <c r="JI14" s="16"/>
+      <c r="JJ14" s="16"/>
+      <c r="JK14" s="16"/>
+      <c r="JL14" s="16"/>
+      <c r="JM14" s="16"/>
+      <c r="JN14" s="16"/>
+      <c r="JO14" s="16"/>
+      <c r="JP14" s="16"/>
+      <c r="JQ14" s="16"/>
+      <c r="JR14" s="16"/>
+      <c r="JS14" s="16"/>
+      <c r="JT14" s="16"/>
+      <c r="JU14" s="16"/>
+      <c r="JV14" s="16"/>
+      <c r="JW14" s="16"/>
+      <c r="JX14" s="16"/>
+      <c r="JY14" s="16"/>
+      <c r="JZ14" s="16"/>
+      <c r="KA14" s="16"/>
+      <c r="KB14" s="16"/>
+      <c r="KC14" s="16"/>
+      <c r="KD14" s="16"/>
+      <c r="KE14" s="16"/>
+      <c r="KF14" s="16"/>
+      <c r="KG14" s="16"/>
+      <c r="KH14" s="16"/>
+      <c r="KI14" s="16"/>
+      <c r="KJ14" s="16"/>
+      <c r="KK14" s="16"/>
+      <c r="KL14" s="16"/>
+      <c r="KM14" s="16"/>
+      <c r="KN14" s="16"/>
+      <c r="KO14" s="16"/>
+      <c r="KP14" s="16"/>
+      <c r="KQ14" s="16"/>
+      <c r="KR14" s="16"/>
+      <c r="KS14" s="16"/>
+      <c r="KT14" s="16"/>
+      <c r="KU14" s="16"/>
+      <c r="KV14" s="16"/>
+      <c r="KW14" s="16"/>
+      <c r="KX14" s="16"/>
+      <c r="KY14" s="16"/>
+      <c r="KZ14" s="16"/>
+      <c r="LA14" s="16"/>
+      <c r="LB14" s="16"/>
+      <c r="LC14" s="16"/>
+      <c r="LD14" s="16"/>
+      <c r="LE14" s="16"/>
+      <c r="LF14" s="16"/>
+      <c r="LG14" s="16"/>
+      <c r="LH14" s="16"/>
+      <c r="LI14" s="16"/>
+      <c r="LJ14" s="16"/>
+      <c r="LK14" s="16"/>
+      <c r="LL14" s="16"/>
+      <c r="LM14" s="16"/>
+      <c r="LN14" s="16"/>
+      <c r="LO14" s="16"/>
+      <c r="LP14" s="16"/>
+      <c r="LQ14" s="16"/>
+      <c r="LR14" s="16"/>
+      <c r="LS14" s="16"/>
+      <c r="LT14" s="16"/>
+      <c r="LU14" s="16"/>
+      <c r="LV14" s="16"/>
+      <c r="LW14" s="16"/>
+      <c r="LX14" s="16"/>
+      <c r="LY14" s="16"/>
+      <c r="LZ14" s="16"/>
+      <c r="MA14" s="16"/>
+      <c r="MB14" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <conditionalFormatting sqref="F5:MB5">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>WEEKDAY(F5)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>WEEKDAY(F5)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>WEEKDAY(F5)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>WEEKDAY(F5)=7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/일정차트.xlsx
+++ b/일정차트.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +113,10 @@
     <t>189(130)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>범례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +124,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -268,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -277,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,67 +344,7 @@
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC13F17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -411,14 +356,18 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC13F17"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,7 +439,82 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>픽스어빌리티 예상 일정 </a:t>
+            <a:t>픽스어빌리티 예상 전체 일정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>임시측정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="190500"/>
+          <a:ext cx="7210425" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>픽스어빌리티 예상 월별 일정 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
@@ -779,17 +803,17 @@
   <dimension ref="A5:MB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.875" customWidth="1"/>
     <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="190" width="2.625" style="3" customWidth="1"/>
-    <col min="191" max="340" width="2.625" customWidth="1"/>
+    <col min="6" max="190" width="1.625" style="3" customWidth="1"/>
+    <col min="191" max="340" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:340" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4983,21 +5007,226 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F5:MB5">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>WEEKDAY(F5)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>WEEKDAY(F5)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>WEEKDAY(F5)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>WEEKDAY(F5)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>WEEKDAY(F5)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="3" width="48.375" customWidth="1"/>
+    <col min="4" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>44146</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44153</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>44154</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44155</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>44148</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44169</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>44155</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44185</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>44186</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44196</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5">
+        <v>44520</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44290</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5">
+        <v>44291</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44321</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5">
+        <v>44322</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44352</v>
+      </c>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5">
+        <v>44291</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44479</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/일정차트.xlsx
+++ b/일정차트.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>범례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">홈페이지 요소완성 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,15 +807,16 @@
   <dimension ref="A5:MB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.25" customWidth="1"/>
+    <col min="3" max="3" width="12.375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="190" width="1.625" style="3" customWidth="1"/>
     <col min="191" max="340" width="1.625" customWidth="1"/>
   </cols>
@@ -1841,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>4</v>

--- a/일정차트.xlsx
+++ b/일정차트.xlsx
@@ -807,7 +807,7 @@
   <dimension ref="A5:MB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4792,33 +4792,33 @@
       <c r="DR14" s="9"/>
       <c r="DS14" s="9"/>
       <c r="DT14" s="9"/>
-      <c r="DU14" s="9"/>
-      <c r="DV14" s="9"/>
-      <c r="DW14" s="9"/>
-      <c r="DX14" s="9"/>
-      <c r="DY14" s="9"/>
-      <c r="DZ14" s="9"/>
-      <c r="EA14" s="9"/>
-      <c r="EB14" s="9"/>
-      <c r="EC14" s="9"/>
-      <c r="ED14" s="9"/>
-      <c r="EE14" s="9"/>
-      <c r="EF14" s="9"/>
-      <c r="EG14" s="9"/>
-      <c r="EH14" s="9"/>
-      <c r="EI14" s="9"/>
-      <c r="EJ14" s="9"/>
-      <c r="EK14" s="9"/>
-      <c r="EL14" s="9"/>
-      <c r="EM14" s="9"/>
-      <c r="EN14" s="9"/>
-      <c r="EO14" s="9"/>
-      <c r="EP14" s="9"/>
-      <c r="EQ14" s="9"/>
-      <c r="ER14" s="9"/>
-      <c r="ES14" s="9"/>
-      <c r="ET14" s="9"/>
-      <c r="EU14" s="9"/>
+      <c r="DU14" s="16"/>
+      <c r="DV14" s="16"/>
+      <c r="DW14" s="16"/>
+      <c r="DX14" s="16"/>
+      <c r="DY14" s="16"/>
+      <c r="DZ14" s="16"/>
+      <c r="EA14" s="16"/>
+      <c r="EB14" s="16"/>
+      <c r="EC14" s="16"/>
+      <c r="ED14" s="16"/>
+      <c r="EE14" s="16"/>
+      <c r="EF14" s="16"/>
+      <c r="EG14" s="16"/>
+      <c r="EH14" s="16"/>
+      <c r="EI14" s="16"/>
+      <c r="EJ14" s="16"/>
+      <c r="EK14" s="16"/>
+      <c r="EL14" s="16"/>
+      <c r="EM14" s="16"/>
+      <c r="EN14" s="16"/>
+      <c r="EO14" s="16"/>
+      <c r="EP14" s="16"/>
+      <c r="EQ14" s="16"/>
+      <c r="ER14" s="16"/>
+      <c r="ES14" s="16"/>
+      <c r="ET14" s="16"/>
+      <c r="EU14" s="16"/>
       <c r="EV14" s="16"/>
       <c r="EW14" s="16"/>
       <c r="EX14" s="16"/>

--- a/일정차트.xlsx
+++ b/일정차트.xlsx
@@ -807,7 +807,7 @@
   <dimension ref="A5:MB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/일정차트.xlsx
+++ b/일정차트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\fixability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\fixability\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t xml:space="preserve">홈페이지 요소완성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:MB14"/>
+  <dimension ref="A5:MB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5009,6 +5013,11 @@
       <c r="MA14" s="16"/>
       <c r="MB14" s="16"/>
     </row>
+    <row r="15" spans="1:340" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F5:MB5">
